--- a/results/new/AuditResults.xlsx
+++ b/results/new/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE3D51-DCA6-43A4-B68D-81F6EEF36F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE468E09-7963-4B50-81D2-6505000AC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2E22782-7125-4CFE-8C67-94D3906252EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>Description</t>
   </si>
@@ -50,10 +50,31 @@
     <t>Attack AUC</t>
   </si>
   <si>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>Eps3</t>
+  </si>
+  <si>
+    <t>Magnitude Prune</t>
+  </si>
+  <si>
+    <t>Random Prune</t>
+  </si>
+  <si>
+    <t>Conv Magnitude Prune</t>
+  </si>
+  <si>
+    <t>Linear Magnitude Prune</t>
+  </si>
+  <si>
+    <t>No Augmentation</t>
+  </si>
+  <si>
     <t>Augmentation</t>
   </si>
   <si>
-    <t>SOTA</t>
+    <t>First Conv Magnitude Prune</t>
   </si>
 </sst>
 </file>
@@ -405,79 +426,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F0CF89-5564-4966-84BE-68873B89477A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>68.569969177246094</v>
+      </c>
+      <c r="E2">
+        <v>0.50783803199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>94.449974060058594</v>
+      </c>
+      <c r="E3">
+        <v>0.52923194100000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>16.620000839233398</v>
+      </c>
+      <c r="E4">
+        <v>0.49721533399999901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>18.880001068115199</v>
+      </c>
+      <c r="E5">
+        <v>0.497747463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>20.250001907348601</v>
+      </c>
+      <c r="E6">
+        <v>0.49774414299999897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>20.550006866455</v>
+      </c>
+      <c r="E7">
+        <v>0.49748631399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>20.4100036621093</v>
+      </c>
+      <c r="E8">
+        <v>0.49750551599999898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>20.289995193481399</v>
+      </c>
+      <c r="E9">
+        <v>0.497472054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>20.769998550415</v>
+      </c>
+      <c r="E10">
+        <v>0.49750557699999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>20.189998626708899</v>
+      </c>
+      <c r="E11">
+        <v>0.49822511199999903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>89.700035095214801</v>
+      </c>
+      <c r="E12">
+        <v>0.52079652700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.98</v>
+      </c>
+      <c r="D13">
+        <v>76.819992065429602</v>
+      </c>
+      <c r="E13">
+        <v>0.51106156800000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.97</v>
+      </c>
+      <c r="D14">
+        <v>57.380016326904297</v>
+      </c>
+      <c r="E14">
+        <v>0.50576468699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D15">
+        <v>68.899978637695298</v>
+      </c>
+      <c r="E15">
+        <v>0.50911899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D16">
+        <v>67.529998779296804</v>
+      </c>
+      <c r="E16">
+        <v>0.50865752200000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.95</v>
+      </c>
+      <c r="D17">
+        <v>27.1600131988525</v>
+      </c>
+      <c r="E17">
+        <v>0.50015232199999904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D18">
+        <v>65.360000610351506</v>
+      </c>
+      <c r="E18">
+        <v>0.50787885300000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>93.020011901855398</v>
+      </c>
+      <c r="E19">
+        <v>0.52763373099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>55.830028533935497</v>
+      </c>
+      <c r="E20">
+        <v>0.51003664800000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21">
+        <v>37.920009613037102</v>
+      </c>
+      <c r="E21">
+        <v>0.50063843200000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0.9</v>
+      </c>
+      <c r="D22">
+        <v>48.860012054443303</v>
+      </c>
+      <c r="E22">
+        <v>0.50454514399999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0.95</v>
+      </c>
+      <c r="D23">
+        <v>67.950019836425696</v>
+      </c>
+      <c r="E23">
+        <v>0.51171507799999905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D24">
+        <v>70.890007019042898</v>
+      </c>
+      <c r="E24">
+        <v>0.51356770699999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>89.029998779296804</v>
+      </c>
+      <c r="E25">
+        <v>0.52286798000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>55.630020141601499</v>
+      </c>
+      <c r="E26">
+        <v>0.51211681600000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>90.060020446777301</v>
       </c>
-      <c r="D2">
+      <c r="E27">
         <v>0.57989453800000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>93.740013122558594</v>
-      </c>
-      <c r="D3">
-        <v>0.52621596399999904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>89.909988403320298</v>
-      </c>
-      <c r="D4">
-        <v>0.53509508800000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>68.569969177246094</v>
-      </c>
-      <c r="D5">
-        <v>0.50783803199999999</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>85.629981994628906</v>
+      </c>
+      <c r="E28">
+        <v>0.514101488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+      <c r="D29">
+        <v>81.540000915527301</v>
+      </c>
+      <c r="E29">
+        <v>0.51137361599999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
+        <v>66.940025329589801</v>
+      </c>
+      <c r="E30">
+        <v>0.51036820199999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
+        <v>70.840049743652301</v>
+      </c>
+      <c r="E31">
+        <v>0.50609510700000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>0.03</v>
+      </c>
+      <c r="D32">
+        <v>67.700004577636705</v>
+      </c>
+      <c r="E32">
+        <v>0.50797577900000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>0.04</v>
+      </c>
+      <c r="D33">
+        <v>75.6400146484375</v>
+      </c>
+      <c r="E33">
+        <v>0.50817627599999904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>64.3699951171875</v>
+      </c>
+      <c r="E34">
+        <v>0.50814939199999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>63.700004577636697</v>
+      </c>
+      <c r="E35">
+        <v>0.50814720899999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>1E-3</v>
+      </c>
+      <c r="D36">
+        <v>10.0000009536743</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>69.790008544921804</v>
+      </c>
+      <c r="E37">
+        <v>0.50606643900000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>71.860015869140597</v>
+      </c>
+      <c r="E38">
+        <v>0.50686120599999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>68.970008850097599</v>
+      </c>
+      <c r="E39">
+        <v>0.50845834299999904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>73.690017700195298</v>
+      </c>
+      <c r="E40">
+        <v>0.50812884599999997</v>
       </c>
     </row>
   </sheetData>
